--- a/366-coquille-sfe-modélisation-contenue/ig/all-profiles.xlsx
+++ b/366-coquille-sfe-modélisation-contenue/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T13:39:50+00:00</t>
+    <t>2025-09-18T13:59:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/366-coquille-sfe-modélisation-contenue/ig/all-profiles.xlsx
+++ b/366-coquille-sfe-modélisation-contenue/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T13:59:27+00:00</t>
+    <t>2025-09-18T14:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
